--- a/Code/Results/Cases/Case_4_116/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_116/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.41997085483541</v>
+        <v>25.09075226886648</v>
       </c>
       <c r="C2">
-        <v>27.36154325187344</v>
+        <v>24.15618532984284</v>
       </c>
       <c r="D2">
-        <v>9.393406690851752</v>
+        <v>13.66559040069222</v>
       </c>
       <c r="E2">
-        <v>8.329634406618043</v>
+        <v>13.71997906063499</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.100261368619238</v>
+        <v>3.783761299183795</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>31.1193262780909</v>
+        <v>37.30960619376872</v>
       </c>
       <c r="J2">
-        <v>4.583864329728153</v>
+        <v>8.27292902613156</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>21.42501349767364</v>
+        <v>25.83956220506195</v>
       </c>
       <c r="N2">
-        <v>16.07853159337142</v>
+        <v>22.80963733486907</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.64711534736518</v>
+        <v>24.73262991661847</v>
       </c>
       <c r="C3">
-        <v>25.59695804773893</v>
+        <v>23.77304961131124</v>
       </c>
       <c r="D3">
-        <v>9.135738267650776</v>
+        <v>13.66778079066164</v>
       </c>
       <c r="E3">
-        <v>8.252701463783893</v>
+        <v>13.74538545379302</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.117060410761503</v>
+        <v>3.78924852137205</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>30.12654430670867</v>
+        <v>37.19449987793202</v>
       </c>
       <c r="J3">
-        <v>4.627584386109481</v>
+        <v>8.28870908821834</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>20.39793326040363</v>
+        <v>25.73737220286801</v>
       </c>
       <c r="N3">
-        <v>16.16472708218737</v>
+        <v>22.83731474705726</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.53188164462103</v>
+        <v>24.51880584599041</v>
       </c>
       <c r="C4">
-        <v>24.49090547208004</v>
+        <v>23.5430714166033</v>
       </c>
       <c r="D4">
-        <v>8.983795752101679</v>
+        <v>13.67195642976651</v>
       </c>
       <c r="E4">
-        <v>8.211494263101764</v>
+        <v>13.76313299624102</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.12749966180805</v>
+        <v>3.792785553137159</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>29.53755625367848</v>
+        <v>37.13171405743086</v>
       </c>
       <c r="J4">
-        <v>4.654983451855302</v>
+        <v>8.298911861138279</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.76835915172386</v>
+        <v>25.68141914200134</v>
       </c>
       <c r="N4">
-        <v>16.22452671017946</v>
+        <v>22.85620908691634</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.07075354078422</v>
+        <v>24.43330341903479</v>
       </c>
       <c r="C5">
-        <v>24.03451641147928</v>
+        <v>23.45079653232052</v>
       </c>
       <c r="D5">
-        <v>8.923412269877225</v>
+        <v>13.67436846025842</v>
       </c>
       <c r="E5">
-        <v>8.196140881536387</v>
+        <v>13.77090456455566</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.131792543448473</v>
+        <v>3.794269330155128</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29.30253367752593</v>
+        <v>37.10811675089968</v>
       </c>
       <c r="J5">
-        <v>4.666303695537819</v>
+        <v>8.303199302029826</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>19.51217225274356</v>
+        <v>25.66033682917141</v>
       </c>
       <c r="N5">
-        <v>16.2505096077411</v>
+        <v>22.86438491372342</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.99378541418044</v>
+        <v>24.41920748390457</v>
       </c>
       <c r="C6">
-        <v>23.95839456346393</v>
+        <v>23.43556491179757</v>
       </c>
       <c r="D6">
-        <v>8.913477261097727</v>
+        <v>13.67481183765661</v>
       </c>
       <c r="E6">
-        <v>8.193676213733513</v>
+        <v>13.77222757562498</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.132507919111551</v>
+        <v>3.79451827736247</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>29.26380549221845</v>
+        <v>37.10431862018095</v>
       </c>
       <c r="J6">
-        <v>4.668193188005628</v>
+        <v>8.30391907944473</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19.46965934069499</v>
+        <v>25.6569402312358</v>
       </c>
       <c r="N6">
-        <v>16.25491844463195</v>
+        <v>22.86577121944257</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.52568951296723</v>
+        <v>24.51764598043233</v>
       </c>
       <c r="C7">
-        <v>24.48477325424269</v>
+        <v>23.5418209681981</v>
       </c>
       <c r="D7">
-        <v>8.982975235215234</v>
+        <v>13.67198608480203</v>
       </c>
       <c r="E7">
-        <v>8.211281474133019</v>
+        <v>13.7632356237983</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.127557390742932</v>
+        <v>3.792805391899981</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>29.53436664295897</v>
+        <v>37.13138776048642</v>
       </c>
       <c r="J7">
-        <v>4.65513547427327</v>
+        <v>8.298969157078943</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.76490243947828</v>
+        <v>25.68112784529954</v>
       </c>
       <c r="N7">
-        <v>16.22487073071912</v>
+        <v>22.85631742284983</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.8142175058423</v>
+        <v>24.96607864961744</v>
       </c>
       <c r="C8">
-        <v>26.75776731764797</v>
+        <v>24.02305841224911</v>
       </c>
       <c r="D8">
-        <v>9.303233564517727</v>
+        <v>13.66575737696229</v>
       </c>
       <c r="E8">
-        <v>8.301807876816637</v>
+        <v>13.72829290674806</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.106032612966684</v>
+        <v>3.78561857544896</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>30.77261905206007</v>
+        <v>37.26828325375367</v>
       </c>
       <c r="J8">
-        <v>4.598833686828873</v>
+        <v>8.278263689054457</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>21.07069539549418</v>
+        <v>25.80292474664657</v>
       </c>
       <c r="N8">
-        <v>16.10675110401724</v>
+        <v>22.81878512513221</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.30231997539206</v>
+        <v>25.88869110749755</v>
       </c>
       <c r="C9">
-        <v>31.04325854033307</v>
+        <v>25.0032596905763</v>
       </c>
       <c r="D9">
-        <v>9.983600691075429</v>
+        <v>13.67605515973585</v>
       </c>
       <c r="E9">
-        <v>8.531053304506523</v>
+        <v>13.67684918752028</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.064418331085245</v>
+        <v>3.772847996915092</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>33.37550050677063</v>
+        <v>37.59905768930605</v>
       </c>
       <c r="J9">
-        <v>4.492027135473346</v>
+        <v>8.241712074049849</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>23.63966259230664</v>
+        <v>26.09507140126161</v>
       </c>
       <c r="N9">
-        <v>15.9357222338933</v>
+        <v>22.76033595268069</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.56231267594935</v>
+        <v>26.58623005109778</v>
       </c>
       <c r="C10">
-        <v>34.13450073876664</v>
+        <v>25.73849406880737</v>
       </c>
       <c r="D10">
-        <v>10.52068132558061</v>
+        <v>13.69740068237532</v>
       </c>
       <c r="E10">
-        <v>8.737239487546621</v>
+        <v>13.64951447843202</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.033551105423217</v>
+        <v>3.764259057219844</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>35.41701343582002</v>
+        <v>37.87957558427436</v>
       </c>
       <c r="J10">
-        <v>4.41442874930048</v>
+        <v>8.217293232944083</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>25.53999297279764</v>
+        <v>26.34127923694151</v>
       </c>
       <c r="N10">
-        <v>15.85713096104161</v>
+        <v>22.72673295718</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.01904299608912</v>
+        <v>26.90641408821469</v>
       </c>
       <c r="C11">
-        <v>35.5666105919754</v>
+        <v>26.07473921807656</v>
       </c>
       <c r="D11">
-        <v>10.7749285818891</v>
+        <v>13.71010908626859</v>
       </c>
       <c r="E11">
-        <v>8.840951393378546</v>
+        <v>13.63936065491454</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.019257643326819</v>
+        <v>3.760521297853384</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>36.38151624036224</v>
+        <v>38.01518554264639</v>
       </c>
       <c r="J11">
-        <v>4.378944765625969</v>
+        <v>8.206705963337075</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>26.56724676507544</v>
+        <v>26.45989978400499</v>
       </c>
       <c r="N11">
-        <v>15.83448012371015</v>
+        <v>22.71349656441296</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.56799544411426</v>
+        <v>27.02795507243159</v>
       </c>
       <c r="C12">
-        <v>36.10793927668225</v>
+        <v>26.20220031093351</v>
       </c>
       <c r="D12">
-        <v>10.87285180540827</v>
+        <v>13.71535239923475</v>
       </c>
       <c r="E12">
-        <v>8.881829425125991</v>
+        <v>13.63584437935504</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.013788912444163</v>
+        <v>3.759130048902604</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>36.75280803985853</v>
+        <v>38.0676721684714</v>
       </c>
       <c r="J12">
-        <v>4.365442386891555</v>
+        <v>8.202771181852029</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>26.97798822786854</v>
+        <v>26.5057468180483</v>
       </c>
       <c r="N12">
-        <v>15.82809212777475</v>
+        <v>22.70878090942264</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.44986744763495</v>
+        <v>27.00176781923557</v>
       </c>
       <c r="C13">
-        <v>35.99137615325676</v>
+        <v>26.17474533373839</v>
       </c>
       <c r="D13">
-        <v>10.85168489627433</v>
+        <v>13.71420399993094</v>
       </c>
       <c r="E13">
-        <v>8.872950978789802</v>
+        <v>13.63658703884651</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.014969562761606</v>
+        <v>3.759428607933388</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>36.67255695617141</v>
+        <v>38.05631807756053</v>
       </c>
       <c r="J13">
-        <v>4.368353983158849</v>
+        <v>8.203615307451525</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>26.88959985197376</v>
+        <v>26.49583196360096</v>
       </c>
       <c r="N13">
-        <v>15.82936494578736</v>
+        <v>22.70978328431359</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.06425208452217</v>
+        <v>26.91640811064536</v>
       </c>
       <c r="C14">
-        <v>35.61115789828702</v>
+        <v>26.08522356393809</v>
       </c>
       <c r="D14">
-        <v>10.78295031620389</v>
+        <v>13.71053182303065</v>
       </c>
       <c r="E14">
-        <v>8.844281133291867</v>
+        <v>13.6390647757698</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.01880898214831</v>
+        <v>3.760406355916358</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>36.41193509873357</v>
+        <v>38.01948102116788</v>
       </c>
       <c r="J14">
-        <v>4.377835479568116</v>
+        <v>8.206380758685963</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>26.60107274928511</v>
+        <v>26.46365319118933</v>
       </c>
       <c r="N14">
-        <v>15.83390871576254</v>
+        <v>22.71310264766772</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.82773977060097</v>
+        <v>26.86415766999609</v>
       </c>
       <c r="C15">
-        <v>35.37817537087836</v>
+        <v>26.03040251113866</v>
       </c>
       <c r="D15">
-        <v>10.74107029880735</v>
+        <v>13.70833861439628</v>
       </c>
       <c r="E15">
-        <v>8.826934947658895</v>
+        <v>13.64062529717003</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.021152763562484</v>
+        <v>3.761008395139223</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>36.25311687203753</v>
+        <v>37.99706443089916</v>
       </c>
       <c r="J15">
-        <v>4.383633361230912</v>
+        <v>8.208084349194825</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>26.42411255885862</v>
+        <v>26.44406288046636</v>
       </c>
       <c r="N15">
-        <v>15.83698721024643</v>
+        <v>22.7151745473787</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>34.46667123086358</v>
+        <v>26.56535284170882</v>
       </c>
       <c r="C16">
-        <v>34.04070176754441</v>
+        <v>25.71654485411842</v>
       </c>
       <c r="D16">
-        <v>10.50428254896151</v>
+        <v>13.69663047849593</v>
       </c>
       <c r="E16">
-        <v>8.730675642891281</v>
+        <v>13.65022401850487</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.034478546997457</v>
+        <v>3.764506720191204</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>35.35477293249556</v>
+        <v>37.87087279079245</v>
       </c>
       <c r="J16">
-        <v>4.416740864430844</v>
+        <v>8.21799557420381</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>25.48321644428257</v>
+        <v>26.33365830515015</v>
       </c>
       <c r="N16">
-        <v>15.85889955012098</v>
+        <v>22.72763939743285</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.62567340581074</v>
+        <v>26.38269582127745</v>
       </c>
       <c r="C17">
-        <v>33.22360247830893</v>
+        <v>25.52437071551807</v>
       </c>
       <c r="D17">
-        <v>10.36169834907194</v>
+        <v>13.69021577730628</v>
       </c>
       <c r="E17">
-        <v>8.674279369477542</v>
+        <v>13.65669727110739</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.042576148745398</v>
+        <v>3.766696073291643</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>34.81340359431348</v>
+        <v>37.79549643752049</v>
       </c>
       <c r="J17">
-        <v>4.436978871717184</v>
+        <v>8.224208849615144</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>24.98650109061767</v>
+        <v>26.26760764678901</v>
       </c>
       <c r="N17">
-        <v>15.87589557666897</v>
+        <v>22.73581254011855</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.1394026913825</v>
+        <v>26.27791344506329</v>
       </c>
       <c r="C18">
-        <v>32.76505110913515</v>
+        <v>25.4140123194585</v>
       </c>
       <c r="D18">
-        <v>10.28060559167781</v>
+        <v>13.68680845183042</v>
       </c>
       <c r="E18">
-        <v>8.642762567939357</v>
+        <v>13.66063515805525</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.047211387162188</v>
+        <v>3.767971287232394</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>34.50532478181039</v>
+        <v>37.75289614816707</v>
       </c>
       <c r="J18">
-        <v>4.448604654039193</v>
+        <v>8.227831630378198</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>24.70143721988386</v>
+        <v>26.23024164562415</v>
       </c>
       <c r="N18">
-        <v>15.88688276399776</v>
+        <v>22.74070633449901</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.97429247553362</v>
+        <v>26.24248717550743</v>
       </c>
       <c r="C19">
-        <v>32.60961183544867</v>
+        <v>25.37668077241218</v>
       </c>
       <c r="D19">
-        <v>10.25330103435536</v>
+        <v>13.68570326653841</v>
       </c>
       <c r="E19">
-        <v>8.63224482381063</v>
+        <v>13.66200529989806</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.048777508944792</v>
+        <v>3.768405799262622</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>34.40155838787798</v>
+        <v>37.73860242623716</v>
       </c>
       <c r="J19">
-        <v>4.452539496778826</v>
+        <v>8.229066685472054</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>24.60501380659226</v>
+        <v>26.21769813137047</v>
       </c>
       <c r="N19">
-        <v>15.89080261190553</v>
+        <v>22.74239634757388</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.71545598350622</v>
+        <v>26.40211215903684</v>
       </c>
       <c r="C20">
-        <v>33.30839022609624</v>
+        <v>25.54481077026481</v>
       </c>
       <c r="D20">
-        <v>10.37678031199395</v>
+        <v>13.69086942291092</v>
       </c>
       <c r="E20">
-        <v>8.680186369859955</v>
+        <v>13.65598596184385</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.041716582331468</v>
+        <v>3.766461362977553</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>34.87068576315938</v>
+        <v>37.80344243590848</v>
       </c>
       <c r="J20">
-        <v>4.434826266904368</v>
+        <v>8.223542361212246</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>25.03930812633992</v>
+        <v>26.27457437660315</v>
       </c>
       <c r="N20">
-        <v>15.87395892019336</v>
+        <v>22.73492252523445</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>36.17757927904145</v>
+        <v>26.94147327209923</v>
       </c>
       <c r="C21">
-        <v>35.72285299727851</v>
+        <v>26.11151565632311</v>
       </c>
       <c r="D21">
-        <v>10.80309259617182</v>
+        <v>13.71159873887621</v>
       </c>
       <c r="E21">
-        <v>8.852656996603656</v>
+        <v>13.63832807607792</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.017682955447215</v>
+        <v>3.760118513542147</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>36.48831310941252</v>
+        <v>38.03027031928796</v>
       </c>
       <c r="J21">
-        <v>4.375052659991239</v>
+        <v>8.205566463976114</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>26.68586603091744</v>
+        <v>26.47307988943945</v>
       </c>
       <c r="N21">
-        <v>15.8325119183361</v>
+        <v>22.71211960295649</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.77182328650918</v>
+        <v>27.29563901242966</v>
       </c>
       <c r="C22">
-        <v>37.29816812377547</v>
+        <v>26.48260673349757</v>
       </c>
       <c r="D22">
-        <v>11.0914574191449</v>
+        <v>13.72765791885568</v>
       </c>
       <c r="E22">
-        <v>8.974842870026615</v>
+        <v>13.6287042012195</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.001635774649476</v>
+        <v>3.756113821509069</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>37.58145931711099</v>
+        <v>38.18511681092302</v>
       </c>
       <c r="J22">
-        <v>4.335581542828607</v>
+        <v>8.194251519174767</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>27.87881668206315</v>
+        <v>26.60821160673213</v>
       </c>
       <c r="N22">
-        <v>15.81837836912815</v>
+        <v>22.69894675610074</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.92186994401539</v>
+        <v>27.1065004502764</v>
       </c>
       <c r="C23">
-        <v>36.45737322284486</v>
+        <v>26.28452286654845</v>
       </c>
       <c r="D23">
-        <v>10.93656897292002</v>
+        <v>13.71885720032209</v>
       </c>
       <c r="E23">
-        <v>8.908693957973775</v>
+        <v>13.63366503437585</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.010239378164097</v>
+        <v>3.758238390395558</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>36.99436273895274</v>
+        <v>38.1018742072548</v>
       </c>
       <c r="J23">
-        <v>4.356700307179249</v>
+        <v>8.200251042004721</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>27.24277887040976</v>
+        <v>26.53560376756219</v>
       </c>
       <c r="N23">
-        <v>15.8246172747516</v>
+        <v>22.70581840045426</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.67487398664387</v>
+        <v>26.39333330863638</v>
       </c>
       <c r="C24">
-        <v>33.27006119267276</v>
+        <v>25.5355694224748</v>
       </c>
       <c r="D24">
-        <v>10.36995902855452</v>
+        <v>13.69057303580182</v>
       </c>
       <c r="E24">
-        <v>8.677513005422814</v>
+        <v>13.65630687100763</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.042105253725225</v>
+        <v>3.766567424021326</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>34.8447787114274</v>
+        <v>37.79984776075877</v>
       </c>
       <c r="J24">
-        <v>4.435799485740136</v>
+        <v>8.223843522703467</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>25.01543253564572</v>
+        <v>26.27142282434418</v>
       </c>
       <c r="N24">
-        <v>15.87483071736861</v>
+        <v>22.73532429389666</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.07256150075859</v>
+        <v>25.6351560443835</v>
       </c>
       <c r="C25">
-        <v>29.90062226766524</v>
+        <v>24.73492313446009</v>
       </c>
       <c r="D25">
-        <v>9.793492135536811</v>
+        <v>13.67085224306525</v>
       </c>
       <c r="E25">
-        <v>8.462910242408887</v>
+        <v>13.68893242629435</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.075673166538729</v>
+        <v>3.776162487358329</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>32.65072356955947</v>
+        <v>37.5029453295924</v>
       </c>
       <c r="J25">
-        <v>4.520659074253043</v>
+        <v>8.251170047411094</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>22.94341593265411</v>
+        <v>26.01041884593843</v>
       </c>
       <c r="N25">
-        <v>15.97456499168562</v>
+        <v>22.77451535718361</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_116/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_116/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.09075226886648</v>
+        <v>27.41997085483539</v>
       </c>
       <c r="C2">
-        <v>24.15618532984284</v>
+        <v>27.36154325187347</v>
       </c>
       <c r="D2">
-        <v>13.66559040069222</v>
+        <v>9.393406690851688</v>
       </c>
       <c r="E2">
-        <v>13.71997906063499</v>
+        <v>8.329634406618196</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.783761299183795</v>
+        <v>2.100261368619492</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>37.30960619376872</v>
+        <v>31.11932627809104</v>
       </c>
       <c r="J2">
-        <v>8.27292902613156</v>
+        <v>4.583864329728379</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>25.83956220506195</v>
+        <v>21.42501349767371</v>
       </c>
       <c r="N2">
-        <v>22.80963733486907</v>
+        <v>16.07853159337149</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.73262991661847</v>
+        <v>25.64711534736516</v>
       </c>
       <c r="C3">
-        <v>23.77304961131124</v>
+        <v>25.59695804773893</v>
       </c>
       <c r="D3">
-        <v>13.66778079066164</v>
+        <v>9.135738267650739</v>
       </c>
       <c r="E3">
-        <v>13.74538545379302</v>
+        <v>8.252701463783989</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.78924852137205</v>
+        <v>2.11706041076151</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>37.19449987793202</v>
+        <v>30.12654430670886</v>
       </c>
       <c r="J3">
-        <v>8.28870908821834</v>
+        <v>4.627584386109515</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>25.73737220286801</v>
+        <v>20.39793326040369</v>
       </c>
       <c r="N3">
-        <v>22.83731474705726</v>
+        <v>16.16472708218753</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.51880584599041</v>
+        <v>24.53188164462107</v>
       </c>
       <c r="C4">
-        <v>23.5430714166033</v>
+        <v>24.49090547208007</v>
       </c>
       <c r="D4">
-        <v>13.67195642976651</v>
+        <v>8.983795752101575</v>
       </c>
       <c r="E4">
-        <v>13.76313299624102</v>
+        <v>8.211494263101656</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.792785553137159</v>
+        <v>2.127499661807655</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>37.13171405743086</v>
+        <v>29.53755625367851</v>
       </c>
       <c r="J4">
-        <v>8.298911861138279</v>
+        <v>4.654983451855334</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>25.68141914200134</v>
+        <v>19.76835915172386</v>
       </c>
       <c r="N4">
-        <v>22.85620908691634</v>
+        <v>16.22452671017948</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.43330341903479</v>
+        <v>24.07075354078421</v>
       </c>
       <c r="C5">
-        <v>23.45079653232052</v>
+        <v>24.03451641147929</v>
       </c>
       <c r="D5">
-        <v>13.67436846025842</v>
+        <v>8.92341226987724</v>
       </c>
       <c r="E5">
-        <v>13.77090456455566</v>
+        <v>8.196140881536431</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.794269330155128</v>
+        <v>2.131792543448473</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>37.10811675089968</v>
+        <v>29.3025336775258</v>
       </c>
       <c r="J5">
-        <v>8.303199302029826</v>
+        <v>4.666303695537819</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.66033682917141</v>
+        <v>19.51217225274352</v>
       </c>
       <c r="N5">
-        <v>22.86438491372342</v>
+        <v>16.25050960774101</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.41920748390457</v>
+        <v>23.99378541418048</v>
       </c>
       <c r="C6">
-        <v>23.43556491179757</v>
+        <v>23.95839456346392</v>
       </c>
       <c r="D6">
-        <v>13.67481183765661</v>
+        <v>8.913477261097876</v>
       </c>
       <c r="E6">
-        <v>13.77222757562498</v>
+        <v>8.193676213733635</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.79451827736247</v>
+        <v>2.132507919111682</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>37.10431862018095</v>
+        <v>29.26380549221867</v>
       </c>
       <c r="J6">
-        <v>8.30391907944473</v>
+        <v>4.668193188005593</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.6569402312358</v>
+        <v>19.46965934069507</v>
       </c>
       <c r="N6">
-        <v>22.86577121944257</v>
+        <v>16.25491844463207</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.51764598043233</v>
+        <v>24.52568951296724</v>
       </c>
       <c r="C7">
-        <v>23.5418209681981</v>
+        <v>24.48477325424273</v>
       </c>
       <c r="D7">
-        <v>13.67198608480203</v>
+        <v>8.982975235215232</v>
       </c>
       <c r="E7">
-        <v>13.7632356237983</v>
+        <v>8.211281474132949</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.792805391899981</v>
+        <v>2.127557390743067</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>37.13138776048642</v>
+        <v>29.53436664295889</v>
       </c>
       <c r="J7">
-        <v>8.298969157078943</v>
+        <v>4.655135474273267</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>25.68112784529954</v>
+        <v>19.76490243947823</v>
       </c>
       <c r="N7">
-        <v>22.85631742284983</v>
+        <v>16.22487073071905</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.96607864961744</v>
+        <v>26.81421750584229</v>
       </c>
       <c r="C8">
-        <v>24.02305841224911</v>
+        <v>26.75776731764796</v>
       </c>
       <c r="D8">
-        <v>13.66575737696229</v>
+        <v>9.303233564517688</v>
       </c>
       <c r="E8">
-        <v>13.72829290674806</v>
+        <v>8.301807876816696</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.78561857544896</v>
+        <v>2.106032612966816</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>37.26828325375367</v>
+        <v>30.77261905206011</v>
       </c>
       <c r="J8">
-        <v>8.278263689054457</v>
+        <v>4.598833686828971</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>25.80292474664657</v>
+        <v>21.07069539549418</v>
       </c>
       <c r="N8">
-        <v>22.81878512513221</v>
+        <v>16.10675110401725</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.88869110749755</v>
+        <v>31.30231997539203</v>
       </c>
       <c r="C9">
-        <v>25.0032596905763</v>
+        <v>31.04325854033304</v>
       </c>
       <c r="D9">
-        <v>13.67605515973585</v>
+        <v>9.983600691075518</v>
       </c>
       <c r="E9">
-        <v>13.67684918752028</v>
+        <v>8.531053304506639</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.772847996915092</v>
+        <v>2.064418331085377</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>37.59905768930605</v>
+        <v>33.37550050677061</v>
       </c>
       <c r="J9">
-        <v>8.241712074049849</v>
+        <v>4.492027135473315</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>26.09507140126161</v>
+        <v>23.63966259230667</v>
       </c>
       <c r="N9">
-        <v>22.76033595268069</v>
+        <v>15.93572223389331</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.58623005109778</v>
+        <v>34.56231267594941</v>
       </c>
       <c r="C10">
-        <v>25.73849406880737</v>
+        <v>34.1345007387668</v>
       </c>
       <c r="D10">
-        <v>13.69740068237532</v>
+        <v>10.52068132558056</v>
       </c>
       <c r="E10">
-        <v>13.64951447843202</v>
+        <v>8.73723948754658</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.764259057219844</v>
+        <v>2.033551105423348</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>37.87957558427436</v>
+        <v>35.41701343582005</v>
       </c>
       <c r="J10">
-        <v>8.217293232944083</v>
+        <v>4.414428749300567</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>26.34127923694151</v>
+        <v>25.53999297279767</v>
       </c>
       <c r="N10">
-        <v>22.72673295718</v>
+        <v>15.85713096104156</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.90641408821469</v>
+        <v>36.01904299608884</v>
       </c>
       <c r="C11">
-        <v>26.07473921807656</v>
+        <v>35.56661059197517</v>
       </c>
       <c r="D11">
-        <v>13.71010908626859</v>
+        <v>10.77492858188915</v>
       </c>
       <c r="E11">
-        <v>13.63936065491454</v>
+        <v>8.84095139337855</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.760521297853384</v>
+        <v>2.019257643326819</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>38.01518554264639</v>
+        <v>36.38151624036221</v>
       </c>
       <c r="J11">
-        <v>8.206705963337075</v>
+        <v>4.3789447656259</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>26.45989978400499</v>
+        <v>26.56724676507523</v>
       </c>
       <c r="N11">
-        <v>22.71349656441296</v>
+        <v>15.83448012371033</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.02795507243159</v>
+        <v>36.56799544411431</v>
       </c>
       <c r="C12">
-        <v>26.20220031093351</v>
+        <v>36.10793927668227</v>
       </c>
       <c r="D12">
-        <v>13.71535239923475</v>
+        <v>10.87285180540831</v>
       </c>
       <c r="E12">
-        <v>13.63584437935504</v>
+        <v>8.881829425126005</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.759130048902604</v>
+        <v>2.013788912444429</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>38.0676721684714</v>
+        <v>36.75280803985861</v>
       </c>
       <c r="J12">
-        <v>8.202771181852029</v>
+        <v>4.365442386891496</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>26.5057468180483</v>
+        <v>26.97798822786857</v>
       </c>
       <c r="N12">
-        <v>22.70878090942264</v>
+        <v>15.82809212777482</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.00176781923557</v>
+        <v>36.44986744763497</v>
       </c>
       <c r="C13">
-        <v>26.17474533373839</v>
+        <v>35.99137615325681</v>
       </c>
       <c r="D13">
-        <v>13.71420399993094</v>
+        <v>10.8516848962743</v>
       </c>
       <c r="E13">
-        <v>13.63658703884651</v>
+        <v>8.872950978789721</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.759428607933388</v>
+        <v>2.014969562761475</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>38.05631807756053</v>
+        <v>36.67255695617143</v>
       </c>
       <c r="J13">
-        <v>8.203615307451525</v>
+        <v>4.368353983158784</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>26.49583196360096</v>
+        <v>26.88959985197378</v>
       </c>
       <c r="N13">
-        <v>22.70978328431359</v>
+        <v>15.82936494578735</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.91640811064536</v>
+        <v>36.06425208452221</v>
       </c>
       <c r="C14">
-        <v>26.08522356393809</v>
+        <v>35.61115789828695</v>
       </c>
       <c r="D14">
-        <v>13.71053182303065</v>
+        <v>10.78295031620386</v>
       </c>
       <c r="E14">
-        <v>13.6390647757698</v>
+        <v>8.844281133291819</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.760406355916358</v>
+        <v>2.018808982148178</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>38.01948102116788</v>
+        <v>36.41193509873361</v>
       </c>
       <c r="J14">
-        <v>8.206380758685963</v>
+        <v>4.377835479568085</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>26.46365319118933</v>
+        <v>26.60107274928513</v>
       </c>
       <c r="N14">
-        <v>22.71310264766772</v>
+        <v>15.83390871576258</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.86415766999609</v>
+        <v>35.82773977060094</v>
       </c>
       <c r="C15">
-        <v>26.03040251113866</v>
+        <v>35.37817537087815</v>
       </c>
       <c r="D15">
-        <v>13.70833861439628</v>
+        <v>10.74107029880733</v>
       </c>
       <c r="E15">
-        <v>13.64062529717003</v>
+        <v>8.826934947658918</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.761008395139223</v>
+        <v>2.021152763562611</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>37.99706443089916</v>
+        <v>36.25311687203747</v>
       </c>
       <c r="J15">
-        <v>8.208084349194825</v>
+        <v>4.383633361230914</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>26.44406288046636</v>
+        <v>26.42411255885855</v>
       </c>
       <c r="N15">
-        <v>22.7151745473787</v>
+        <v>15.83698721024643</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.56535284170882</v>
+        <v>34.46667123086353</v>
       </c>
       <c r="C16">
-        <v>25.71654485411842</v>
+        <v>34.04070176754443</v>
       </c>
       <c r="D16">
-        <v>13.69663047849593</v>
+        <v>10.50428254896158</v>
       </c>
       <c r="E16">
-        <v>13.65022401850487</v>
+        <v>8.730675642891349</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.764506720191204</v>
+        <v>2.034478546997588</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>37.87087279079245</v>
+        <v>35.35477293249564</v>
       </c>
       <c r="J16">
-        <v>8.21799557420381</v>
+        <v>4.416740864430812</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>26.33365830515015</v>
+        <v>25.48321644428259</v>
       </c>
       <c r="N16">
-        <v>22.72763939743285</v>
+        <v>15.858899550121</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.38269582127745</v>
+        <v>33.62567340581064</v>
       </c>
       <c r="C17">
-        <v>25.52437071551807</v>
+        <v>33.22360247830878</v>
       </c>
       <c r="D17">
-        <v>13.69021577730628</v>
+        <v>10.36169834907196</v>
       </c>
       <c r="E17">
-        <v>13.65669727110739</v>
+        <v>8.674279369477517</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.766696073291643</v>
+        <v>2.042576148745398</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>37.79549643752049</v>
+        <v>34.81340359431353</v>
       </c>
       <c r="J17">
-        <v>8.224208849615144</v>
+        <v>4.436978871717154</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>26.26760764678901</v>
+        <v>24.98650109061764</v>
       </c>
       <c r="N17">
-        <v>22.73581254011855</v>
+        <v>15.87589557666909</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.27791344506329</v>
+        <v>33.13940269138255</v>
       </c>
       <c r="C18">
-        <v>25.4140123194585</v>
+        <v>32.76505110913522</v>
       </c>
       <c r="D18">
-        <v>13.68680845183042</v>
+        <v>10.28060559167774</v>
       </c>
       <c r="E18">
-        <v>13.66063515805525</v>
+        <v>8.642762567939322</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.767971287232394</v>
+        <v>2.047211387162316</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>37.75289614816707</v>
+        <v>34.50532478181041</v>
       </c>
       <c r="J18">
-        <v>8.227831630378198</v>
+        <v>4.448604654039292</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>26.23024164562415</v>
+        <v>24.70143721988388</v>
       </c>
       <c r="N18">
-        <v>22.74070633449901</v>
+        <v>15.88688276399775</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.24248717550743</v>
+        <v>32.97429247553367</v>
       </c>
       <c r="C19">
-        <v>25.37668077241218</v>
+        <v>32.60961183544871</v>
       </c>
       <c r="D19">
-        <v>13.68570326653841</v>
+        <v>10.25330103435531</v>
       </c>
       <c r="E19">
-        <v>13.66200529989806</v>
+        <v>8.632244823810566</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.768405799262622</v>
+        <v>2.048777508944785</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>37.73860242623716</v>
+        <v>34.40155838787808</v>
       </c>
       <c r="J19">
-        <v>8.229066685472054</v>
+        <v>4.452539496778816</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>26.21769813137047</v>
+        <v>24.60501380659229</v>
       </c>
       <c r="N19">
-        <v>22.74239634757388</v>
+        <v>15.89080261190554</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.40211215903684</v>
+        <v>33.71545598350635</v>
       </c>
       <c r="C20">
-        <v>25.54481077026481</v>
+        <v>33.30839022609624</v>
       </c>
       <c r="D20">
-        <v>13.69086942291092</v>
+        <v>10.37678031199396</v>
       </c>
       <c r="E20">
-        <v>13.65598596184385</v>
+        <v>8.680186369859962</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.766461362977553</v>
+        <v>2.041716582331336</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>37.80344243590848</v>
+        <v>34.87068576315941</v>
       </c>
       <c r="J20">
-        <v>8.223542361212246</v>
+        <v>4.434826266904393</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>26.27457437660315</v>
+        <v>25.03930812633993</v>
       </c>
       <c r="N20">
-        <v>22.73492252523445</v>
+        <v>15.87395892019335</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.94147327209923</v>
+        <v>36.17757927904145</v>
       </c>
       <c r="C21">
-        <v>26.11151565632311</v>
+        <v>35.72285299727837</v>
       </c>
       <c r="D21">
-        <v>13.71159873887621</v>
+        <v>10.80309259617179</v>
       </c>
       <c r="E21">
-        <v>13.63832807607792</v>
+        <v>8.852656996603692</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.760118513542147</v>
+        <v>2.017682955447091</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>38.03027031928796</v>
+        <v>36.48831310941254</v>
       </c>
       <c r="J21">
-        <v>8.205566463976114</v>
+        <v>4.37505265999127</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>26.47307988943945</v>
+        <v>26.68586603091742</v>
       </c>
       <c r="N21">
-        <v>22.71211960295649</v>
+        <v>15.83251191833612</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.29563901242966</v>
+        <v>37.7718232865094</v>
       </c>
       <c r="C22">
-        <v>26.48260673349757</v>
+        <v>37.29816812377571</v>
       </c>
       <c r="D22">
-        <v>13.72765791885568</v>
+        <v>11.09145741914493</v>
       </c>
       <c r="E22">
-        <v>13.6287042012195</v>
+        <v>8.974842870026647</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.756113821509069</v>
+        <v>2.001635774649741</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>38.18511681092302</v>
+        <v>37.58145931711117</v>
       </c>
       <c r="J22">
-        <v>8.194251519174767</v>
+        <v>4.335581542828613</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>26.60821160673213</v>
+        <v>27.87881668206332</v>
       </c>
       <c r="N22">
-        <v>22.69894675610074</v>
+        <v>15.81837836912814</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.1065004502764</v>
+        <v>36.92186994401534</v>
       </c>
       <c r="C23">
-        <v>26.28452286654845</v>
+        <v>36.4573732228448</v>
       </c>
       <c r="D23">
-        <v>13.71885720032209</v>
+        <v>10.93656897292005</v>
       </c>
       <c r="E23">
-        <v>13.63366503437585</v>
+        <v>8.908693957973828</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.758238390395558</v>
+        <v>2.01023937816436</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>38.1018742072548</v>
+        <v>36.99436273895272</v>
       </c>
       <c r="J23">
-        <v>8.200251042004721</v>
+        <v>4.35670030717931</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>26.53560376756219</v>
+        <v>27.24277887040971</v>
       </c>
       <c r="N23">
-        <v>22.70581840045426</v>
+        <v>15.8246172747516</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.39333330863638</v>
+        <v>33.67487398664386</v>
       </c>
       <c r="C24">
-        <v>25.5355694224748</v>
+        <v>33.27006119267275</v>
       </c>
       <c r="D24">
-        <v>13.69057303580182</v>
+        <v>10.36995902855437</v>
       </c>
       <c r="E24">
-        <v>13.65630687100763</v>
+        <v>8.677513005422771</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.766567424021326</v>
+        <v>2.042105253725094</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>37.79984776075877</v>
+        <v>34.84477871142744</v>
       </c>
       <c r="J24">
-        <v>8.223843522703467</v>
+        <v>4.435799485740141</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>26.27142282434418</v>
+        <v>25.01543253564571</v>
       </c>
       <c r="N24">
-        <v>22.73532429389666</v>
+        <v>15.87483071736856</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.6351560443835</v>
+        <v>30.07256150075861</v>
       </c>
       <c r="C25">
-        <v>24.73492313446009</v>
+        <v>29.90062226766513</v>
       </c>
       <c r="D25">
-        <v>13.67085224306525</v>
+        <v>9.793492135536834</v>
       </c>
       <c r="E25">
-        <v>13.68893242629435</v>
+        <v>8.462910242408855</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.776162487358329</v>
+        <v>2.075673166538729</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>37.5029453295924</v>
+        <v>32.65072356955944</v>
       </c>
       <c r="J25">
-        <v>8.251170047411094</v>
+        <v>4.520659074252921</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>26.01041884593843</v>
+        <v>22.94341593265408</v>
       </c>
       <c r="N25">
-        <v>22.77451535718361</v>
+        <v>15.97456499168564</v>
       </c>
       <c r="O25">
         <v>0</v>
